--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2565344.127466587</v>
+        <v>-2567825.047292046</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.813695076354</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851352</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663269</v>
+        <v>20.30295796174898</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001939</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579941</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104928</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524936</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830083</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>222.198732617787</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.317792068927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>56.32064425466339</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115013</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310858</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>92.64641915799896</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271155</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443153</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890426</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184863</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367014</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494644</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019106</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649682</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>31.61658019207903</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545851</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>384.0015790663271</v>
@@ -1625,7 +1625,7 @@
         <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579961</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104948</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
         <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>300.5652383724863</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913427</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
         <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292098</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>21.94878766482239</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>171.6187008431877</v>
       </c>
       <c r="V16" t="n">
         <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>267.1640487096473</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245674</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
-        <v>130.022686933901</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531828</v>
+        <v>97.90474570419643</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290869</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249322</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085003</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721211</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330909</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860166</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411898</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432823</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0533602654137</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998937</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>275.027409325835</v>
       </c>
       <c r="X19" t="n">
-        <v>151.814372183318</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652884</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>307.9637310891342</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816013</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.2924785824567</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.022686933901</v>
+        <v>9.362935956137468</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531828</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290869</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249322</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085003</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721211</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330909</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860164</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411896</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432819</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>208.0533602654151</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998937</v>
+        <v>274.7162491948565</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.814372183318</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652884</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816013</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245668</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T23" t="n">
-        <v>130.022686933901</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531828</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290869</v>
+        <v>155.7512320878717</v>
       </c>
       <c r="D25" t="n">
-        <v>137.1198840074583</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085003</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721211</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330909</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860164</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411896</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432819</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998937</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.814372183318</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
         <v>256.9983213925781</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007097</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383239</v>
+        <v>82.14725995383243</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052293</v>
+        <v>69.56210087052297</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010749</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846426</v>
+        <v>48.74924241846431</v>
       </c>
       <c r="F37" t="n">
-        <v>98.69583361727769</v>
+        <v>100.0281334355439</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092332</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621587</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333699</v>
+        <v>92.08430510333703</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E40" t="n">
-        <v>90.95618068285727</v>
+        <v>99.70874824091581</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482635</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092333</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621589</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429028</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925782</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136067</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253487</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592157</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007108</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115154</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307972</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503643</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383255</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052308</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>50.9307527901076</v>
+        <v>94.46999087276807</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>89.94326605921826</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092347</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621603</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333714</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480644</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775081</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609324</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,13 +4034,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>92.28848050112485</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092326</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>196.6598613601169</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.05251817521</v>
+        <v>1502.254258673504</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.05251817521</v>
+        <v>1160.483808992816</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828184</v>
+        <v>829.4101776457891</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489663</v>
+        <v>470.8139923072684</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597796</v>
+        <v>87.02015477738456</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810644998</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299087</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395988</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039934</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.721540039934</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2759.850719956087</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.407555695696</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.407555695696</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.460290979608</v>
+        <v>1861.662031477902</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>635.4074251142029</v>
+        <v>515.8794954802771</v>
       </c>
       <c r="C13" t="n">
-        <v>493.6633094460197</v>
+        <v>515.8794954802771</v>
       </c>
       <c r="D13" t="n">
-        <v>370.7387372934078</v>
+        <v>515.8794954802771</v>
       </c>
       <c r="E13" t="n">
-        <v>370.7387372934078</v>
+        <v>515.8794954802771</v>
       </c>
       <c r="F13" t="n">
-        <v>277.1564957196715</v>
+        <v>396.1816152420904</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541142</v>
+        <v>255.670845876533</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541142</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402572</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784765</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058535</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058535</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145085</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974334</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.522944359702</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.030523413539</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.805420636303</v>
+        <v>967.167030653552</v>
       </c>
       <c r="X13" t="n">
-        <v>829.0079369980091</v>
+        <v>766.3695470152584</v>
       </c>
       <c r="Y13" t="n">
-        <v>635.4074251142029</v>
+        <v>572.7690351314519</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1465.153151170352</v>
+        <v>1813.052518175211</v>
       </c>
       <c r="C14" t="n">
-        <v>1123.382701489664</v>
+        <v>1813.052518175211</v>
       </c>
       <c r="D14" t="n">
-        <v>1123.382701489664</v>
+        <v>1481.978886828185</v>
       </c>
       <c r="E14" t="n">
         <v>1123.382701489664</v>
@@ -5267,61 +5267,61 @@
         <v>739.58886395978</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645003</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.3169479329911</v>
+        <v>81.31694793299101</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395988</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039934</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573494</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>2837.383130573494</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>2533.781879692195</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>2187.508188690839</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="Y14" t="n">
-        <v>1824.56092397475</v>
+        <v>1844.98845776317</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>590.7166931409549</v>
+        <v>901.2692096237416</v>
       </c>
       <c r="C16" t="n">
-        <v>448.9725774727716</v>
+        <v>759.5250939555584</v>
       </c>
       <c r="D16" t="n">
-        <v>326.0480053201592</v>
+        <v>636.6005218029463</v>
       </c>
       <c r="E16" t="n">
-        <v>326.0480053201592</v>
+        <v>515.8794954802769</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201592</v>
+        <v>396.1816152420902</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5372359546018</v>
+        <v>255.6708458765329</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705054</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402566</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.94255636106</v>
+        <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162334</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1891.199409571605</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1629.288609956972</v>
+        <v>1545.443130917658</v>
       </c>
       <c r="V16" t="n">
-        <v>1401.796189010808</v>
+        <v>1317.950709971495</v>
       </c>
       <c r="W16" t="n">
-        <v>1139.571086233571</v>
+        <v>1055.725607194258</v>
       </c>
       <c r="X16" t="n">
-        <v>938.7736025952775</v>
+        <v>1055.725607194258</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.173090711471</v>
+        <v>1055.725607194258</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1830.862197398327</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C17" t="n">
         <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535083</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446361</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F17" t="n">
         <v>629.8847665628259</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156191</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344064</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936081</v>
+        <v>3158.620805936083</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417714</v>
+        <v>3059.727123406592</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281941</v>
+        <v>3059.727123406592</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219624</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166341</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398327</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635988</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I18" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872277</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671178</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625792</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879832</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F19" t="n">
-        <v>253.83271639787</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
-        <v>160.771579980386</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604094</v>
+        <v>89.19609340604114</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729436</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.445531062877</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064787</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356235</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454032</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096703</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.904057542004</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.583240809389</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>940.9592424104353</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>940.9592424104353</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628255</v>
+        <v>629.8847665628261</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156191</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,22 +5750,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936082</v>
+        <v>3316.148310542366</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417716</v>
+        <v>3316.148310542366</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281942</v>
+        <v>3059.727123406592</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219625</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166343</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.862197398328</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872277</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671178</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625792</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879832</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.83271639787</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803861</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604097</v>
+        <v>89.19609340604113</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5938,22 +5938,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729436</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062877</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064787</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356235</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454032</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096703</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="23">
@@ -5966,64 +5966,64 @@
         <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349359</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531254</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059181</v>
+        <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>388.4813261528516</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713543</v>
+        <v>722.3006998426981</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1173.334913091107</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391688</v>
+        <v>1706.866817763032</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2253.645634821814</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454456</v>
+        <v>2756.618105701151</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811634</v>
+        <v>3151.392472058329</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.59276179689</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
         <v>2788.465806734574</v>
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.409492871408</v>
+        <v>948.4094928714077</v>
       </c>
       <c r="C24" t="n">
-        <v>773.956463590281</v>
+        <v>773.9564635902807</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290299</v>
+        <v>625.0220539290294</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235743</v>
+        <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504594</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830778</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.3850464209448</v>
+        <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243131</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934474</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061128</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.293708828429</v>
+        <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
         <v>1692.816752382883</v>
@@ -6087,25 +6087,25 @@
         <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.919180923641</v>
+        <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516156</v>
+        <v>2571.774827516155</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009636</v>
+        <v>2442.336941009635</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687492</v>
+        <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
         <v>2021.626093821907</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590165</v>
+        <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861963</v>
+        <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38512865643</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.017411513855</v>
+        <v>639.0174115138539</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937452</v>
+        <v>481.6929346574178</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528782</v>
+        <v>406.217995452879</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782822</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>260.698354788169</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
-        <v>167.637218370685</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633993</v>
+        <v>96.0617317963401</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
@@ -6184,13 +6184,13 @@
         <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762251</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720305</v>
+        <v>892.1750550720296</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362976</v>
+        <v>746.0241761362965</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,52 +6224,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1184.800837351327</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.332742023252</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N26" t="n">
-        <v>2265.111559082034</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>3145.076209411489</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768667</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668915</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,16 +6382,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6403,16 +6403,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>1002.369923216575</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1453.404136464983</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1986.936041136908</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N29" t="n">
-        <v>2533.71485819569</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O29" t="n">
-        <v>3036.687329075027</v>
+        <v>3336.058965299585</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3730.833331656763</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3979.119693412445</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6497,16 +6497,16 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6619,13 +6619,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
@@ -6716,10 +6716,10 @@
         <v>2959.066785849467</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6734,13 +6734,13 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,10 +6877,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
         <v>2127.355355052752</v>
@@ -6935,22 +6935,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6968,13 +6968,13 @@
         <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
@@ -7014,7 +7014,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031477</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.4050786964424</v>
+        <v>749.7479478441287</v>
       </c>
       <c r="C37" t="n">
-        <v>482.1403303423788</v>
+        <v>679.4831994900651</v>
       </c>
       <c r="D37" t="n">
-        <v>332.0236909300431</v>
+        <v>628.0379946515727</v>
       </c>
       <c r="E37" t="n">
-        <v>282.7820319214934</v>
+        <v>578.7963356430229</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218343</v>
@@ -7120,7 +7120,7 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.449641246691</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T37" t="n">
         <v>1621.35446039006</v>
@@ -7132,13 +7132,13 @@
         <v>1274.909974457503</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4928044205428</v>
+        <v>1084.164238994386</v>
       </c>
       <c r="X37" t="n">
-        <v>856.1746880963689</v>
+        <v>954.8461226702118</v>
       </c>
       <c r="Y37" t="n">
-        <v>635.3821089528387</v>
+        <v>832.724978100525</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
         <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
@@ -7187,7 +7187,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7211,13 +7211,13 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7242,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>444.8926667912272</v>
+        <v>749.7479478441293</v>
       </c>
       <c r="C40" t="n">
-        <v>374.6279184371635</v>
+        <v>679.4831994900658</v>
       </c>
       <c r="D40" t="n">
-        <v>323.1827135986712</v>
+        <v>628.0379946515734</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159871</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1621.35446039006</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1430.923028089547</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1274.909974457503</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663014</v>
+        <v>1084.164238994386</v>
       </c>
       <c r="X40" t="n">
-        <v>847.333710764997</v>
+        <v>954.8461226702124</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214669</v>
+        <v>832.7249781005256</v>
       </c>
     </row>
     <row r="41">
@@ -7394,58 +7394,58 @@
         <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464976</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810575</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710112</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668177</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515857</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049858</v>
@@ -7482,10 +7482,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228008</v>
@@ -7494,13 +7494,13 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.56410136507</v>
+        <v>839.5784050866012</v>
       </c>
       <c r="C43" t="n">
-        <v>473.2993530110062</v>
+        <v>769.3136567325377</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725137</v>
+        <v>673.8894235277214</v>
       </c>
       <c r="E43" t="n">
-        <v>273.9410545901206</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919203</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404825</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218346</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7573,7 +7573,7 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764915</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
         <v>976.3387758760405</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
         <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332018</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.068997126131</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891706</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X43" t="n">
-        <v>847.3337107649966</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214664</v>
+        <v>922.5554353429975</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7676,22 +7676,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7725,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599.6022649647792</v>
+        <v>839.5784050866012</v>
       </c>
       <c r="C46" t="n">
-        <v>529.3375166107157</v>
+        <v>769.3136567325377</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722234</v>
+        <v>717.8684518940453</v>
       </c>
       <c r="E46" t="n">
-        <v>428.6506527636736</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657633</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218343</v>
@@ -7840,16 +7840,16 @@
         <v>1520.753485332019</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.10716072584</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.68999068888</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X46" t="n">
-        <v>903.3718743647057</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.250729795019</v>
+        <v>922.5554353429975</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430623</v>
+        <v>157.2353108430632</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433728995</v>
+        <v>184.4039433729009</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389588</v>
+        <v>191.4948909389605</v>
       </c>
       <c r="M8" t="n">
-        <v>181.085632533305</v>
+        <v>181.0856325333069</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830223</v>
+        <v>179.3553748830242</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383973</v>
+        <v>182.8301554383992</v>
       </c>
       <c r="P8" t="n">
-        <v>190.890803558657</v>
+        <v>190.8908035586586</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266113</v>
+        <v>192.0103836266125</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875969</v>
+        <v>112.6562001875974</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372524</v>
+        <v>113.6031223372534</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672262</v>
+        <v>105.9629718672275</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253579</v>
+        <v>104.1013981253594</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677516</v>
+        <v>92.30246558677666</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359723</v>
+        <v>106.8829608359737</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798314</v>
+        <v>105.3113487798325</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615451</v>
+        <v>120.8212784615458</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564651</v>
+        <v>116.1755252564658</v>
       </c>
       <c r="M10" t="n">
-        <v>119.199607408522</v>
+        <v>119.1996074085228</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140771</v>
+        <v>108.4284123140778</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530918</v>
+        <v>120.6694600530925</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662699</v>
+        <v>122.5080856662705</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>127.4994347185291</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>339.8144253784336</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>-4.695133171139787e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>131.2335379367244</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>277.220684154413</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>233.4533865158185</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>19.40311602546478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>122.1718867553229</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>78.40458911672741</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.352745183881</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.6986211045781</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717754</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>100.1220895124994</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913425</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948107</v>
+        <v>96.59118934014748</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594426</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>25.85448227780571</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271942</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292078</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>324.1971148842752</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830086</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>21.75558375780034</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271175</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>170.6800150242204</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>87.67299077529874</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>24.21355985564118</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>79.19514304898657</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>25.01703144685816</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>120.6597509777637</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1233568.436851068</v>
+        <v>1233568.436851067</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1342428.060923184</v>
+        <v>1342428.060923183</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61445.72540377789</v>
+        <v>61445.72540377785</v>
       </c>
       <c r="C2" t="n">
-        <v>61445.72540377785</v>
+        <v>61445.72540377788</v>
       </c>
       <c r="D2" t="n">
-        <v>61447.40023544598</v>
+        <v>61447.40023544596</v>
       </c>
       <c r="E2" t="n">
-        <v>54715.50006787317</v>
+        <v>54715.50006787309</v>
       </c>
       <c r="F2" t="n">
-        <v>54715.50006787306</v>
+        <v>54715.50006787311</v>
       </c>
       <c r="G2" t="n">
-        <v>59589.81159349023</v>
+        <v>59589.81159349024</v>
       </c>
       <c r="H2" t="n">
-        <v>59589.81159349024</v>
+        <v>59589.81159349022</v>
       </c>
       <c r="I2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="K2" t="n">
+        <v>61578.13273982117</v>
+      </c>
+      <c r="L2" t="n">
         <v>61578.13273982119</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61578.13273982115</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982128</v>
       </c>
       <c r="N2" t="n">
+        <v>61578.13273982127</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61578.13273982129</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.13273982128</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982122</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552498</v>
+        <v>59764.55367552266</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.97216363</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487422</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.4678298336</v>
+        <v>22821.46782983363</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179695</v>
+        <v>25409.43302179689</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487422</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475031</v>
+        <v>426120.6833475039</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.2179786376</v>
+        <v>39414.21797863743</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.21797863737</v>
+        <v>39414.21797863743</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.37834007977</v>
+        <v>76442.37834007965</v>
       </c>
       <c r="H4" t="n">
-        <v>76442.37834007975</v>
+        <v>76442.37834007965</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.33560602852</v>
+        <v>89331.33560602841</v>
       </c>
       <c r="J4" t="n">
+        <v>86909.55729936328</v>
+      </c>
+      <c r="K4" t="n">
         <v>86909.55729936331</v>
-      </c>
-      <c r="K4" t="n">
-        <v>86909.55729936333</v>
       </c>
       <c r="L4" t="n">
         <v>86909.55729936331</v>
       </c>
       <c r="M4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316933</v>
       </c>
       <c r="N4" t="n">
         <v>91573.95495316936</v>
       </c>
       <c r="O4" t="n">
-        <v>91573.95495316933</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="P4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316942</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186641</v>
+        <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.4903648264</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-419206.4948686149</v>
+        <v>-419210.9084464831</v>
       </c>
       <c r="C6" t="n">
-        <v>-419206.494868615</v>
+        <v>-419210.9084464831</v>
       </c>
       <c r="D6" t="n">
-        <v>-459586.7422194485</v>
+        <v>-459591.0999695928</v>
       </c>
       <c r="E6" t="n">
-        <v>-1150507.180439221</v>
+        <v>-1150735.934861622</v>
       </c>
       <c r="F6" t="n">
-        <v>-61268.20827559054</v>
+        <v>-61496.96269798902</v>
       </c>
       <c r="G6" t="n">
-        <v>-134951.3191666786</v>
+        <v>-135017.5965382227</v>
       </c>
       <c r="H6" t="n">
-        <v>-97371.20987180455</v>
+        <v>-97437.48724334867</v>
       </c>
       <c r="I6" t="n">
-        <v>-136311.198997883</v>
+        <v>-136311.1989978829</v>
       </c>
       <c r="J6" t="n">
-        <v>-140118.7992561452</v>
+        <v>-140118.7992561451</v>
       </c>
       <c r="K6" t="n">
-        <v>-114709.3662343481</v>
+        <v>-114709.3662343483</v>
       </c>
       <c r="L6" t="n">
-        <v>-152289.4755292225</v>
+        <v>-152289.4755292223</v>
       </c>
       <c r="M6" t="n">
-        <v>-314682.5195123221</v>
+        <v>-314682.5195123222</v>
       </c>
       <c r="N6" t="n">
-        <v>-112514.4195195979</v>
+        <v>-112514.419519598</v>
       </c>
       <c r="O6" t="n">
         <v>-112514.419519598</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790898</v>
+        <v>69.78465283790626</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810298</v>
+        <v>917.2219352810299</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26823,10 +26823,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022933</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.538151805367432e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859278</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.161267989972008e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859277</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951236</v>
+        <v>50.70958360951231</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790898</v>
+        <v>69.78465283790626</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755389</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873693</v>
+        <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758462</v>
+        <v>97.1145259275844</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.4664495959713</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859278</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104723</v>
+        <v>199.6603204104727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780168</v>
+        <v>132.2465643780175</v>
       </c>
       <c r="S8" t="n">
-        <v>202.627234303657</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672087</v>
+        <v>84.22861846672107</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987483</v>
+        <v>90.8382912698752</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192289</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241795</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519051</v>
+        <v>84.46220888519086</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989795</v>
+        <v>7.649035050990364</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317012</v>
+        <v>75.62456067317054</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437876</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712657</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712636</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T19" t="n">
-        <v>11.49558901075545</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571914</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T22" t="n">
-        <v>11.49558901075409</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571914</v>
+        <v>11.49558901075636</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571914</v>
+        <v>11.49558901075611</v>
       </c>
       <c r="D25" t="n">
-        <v>11.49558901075409</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571914</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859223</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29946,7 +29946,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
         <v>46.97513661859255</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="F37" t="n">
-        <v>46.72521440565356</v>
+        <v>45.3929145873873</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E40" t="n">
-        <v>55.47778196371191</v>
+        <v>46.72521440565336</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810475</v>
+        <v>54.14548214544429</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>55.47778196371299</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810475</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810475</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810475</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>54.14548214544432</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V46" t="n">
-        <v>55.47778196371107</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413424</v>
+        <v>0.2805413179413315</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366774</v>
+        <v>2.873093772366662</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993361</v>
+        <v>10.81556915993319</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362403</v>
+        <v>23.81059368362311</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208106</v>
+        <v>35.68590767207968</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102843</v>
+        <v>44.27152403102671</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396777</v>
+        <v>49.26060069396586</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356862</v>
+        <v>50.05768871356668</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328939</v>
+        <v>47.26805598328755</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661249</v>
+        <v>40.34219219661093</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783816</v>
+        <v>30.29530624783698</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313286</v>
+        <v>17.62255356313218</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588346</v>
+        <v>6.392835282588099</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288227</v>
+        <v>1.228069619288179</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530739</v>
+        <v>0.02244330543530652</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796533</v>
+        <v>0.1501028381796475</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840336</v>
+        <v>1.449677410840279</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694203</v>
+        <v>5.168014384694002</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906979</v>
+        <v>14.18142647906924</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710656</v>
+        <v>24.23831663710562</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264797</v>
+        <v>32.5914079126467</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579666039</v>
+        <v>38.03263579665891</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655816</v>
+        <v>39.03924649655664</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847215</v>
+        <v>35.71328360847077</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449888</v>
+        <v>28.66305863449777</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447645</v>
+        <v>19.1604956244757</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768301</v>
+        <v>9.319542882767939</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608909</v>
+        <v>2.7880943846088</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890409</v>
+        <v>0.6050197731890173</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345615</v>
+        <v>0.00987518672234523</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486883</v>
+        <v>0.1258411772486834</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811066</v>
+        <v>1.118842466811022</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078737</v>
+        <v>3.78438740307859</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482263</v>
+        <v>8.896971231481917</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489306</v>
+        <v>14.62045677489249</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477317</v>
+        <v>18.70915102477245</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908302</v>
+        <v>19.72617653908225</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115611</v>
+        <v>19.25713215115536</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875097</v>
+        <v>17.78707839875028</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287772</v>
+        <v>15.21991838287712</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852425</v>
+        <v>10.53748257852385</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381929</v>
+        <v>5.65827693338171</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233958</v>
+        <v>2.193068516233873</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625772</v>
+        <v>0.5376850300625563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564825</v>
+        <v>0.006864064213564558</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026457</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,10 +33734,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34223,13 +34223,13 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970245</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019276</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573247</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019256</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573244</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806101</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546664</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322367</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.623504535979</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>318.2864356872416</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36370,13 +36370,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8674262666527</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>586.8236523290566</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737849</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>570.644673071219</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36844,16 +36844,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>79.01631456768956</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165846</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37084,13 +37084,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>520.9338729746947</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>329.1988939204469</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637028</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554026</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37871,13 +37871,13 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
